--- a/20_Bausteine/Sonderzeichen/Mappingtabelle.xlsx
+++ b/20_Bausteine/Sonderzeichen/Mappingtabelle.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\temp\release_ifs_1.3.5\20_Bausteine\Sonderzeichen\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="13980" windowHeight="10620" activeTab="3"/>
   </bookViews>
@@ -13,7 +18,7 @@
     <sheet name="Lizenz" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$2:$M$492</definedName>
+    <definedName name="_FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$2:$M$492</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -25,7 +30,7 @@
     <author>SueshardtD</author>
   </authors>
   <commentList>
-    <comment ref="E129" authorId="0">
+    <comment ref="E129" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -8917,7 +8922,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -9107,9 +9112,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9127,9 +9129,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -9137,6 +9142,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -10025,9 +10033,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -10065,9 +10073,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10102,7 +10110,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -10137,7 +10145,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -30472,39 +30480,39 @@
       <c r="A495" s="13" t="s">
         <v>2759</v>
       </c>
-      <c r="B495" s="25" t="s">
+      <c r="B495" s="32" t="s">
         <v>2760</v>
       </c>
-      <c r="C495" s="25"/>
-      <c r="D495" s="25"/>
+      <c r="C495" s="32"/>
+      <c r="D495" s="32"/>
     </row>
     <row r="496" spans="1:13" ht="156" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B496" s="25" t="s">
+      <c r="B496" s="32" t="s">
         <v>2761</v>
       </c>
-      <c r="C496" s="25"/>
-      <c r="D496" s="25"/>
+      <c r="C496" s="32"/>
+      <c r="D496" s="32"/>
     </row>
     <row r="497" spans="2:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B497" s="25" t="s">
+      <c r="B497" s="32" t="s">
         <v>2762</v>
       </c>
-      <c r="C497" s="25"/>
-      <c r="D497" s="25"/>
+      <c r="C497" s="32"/>
+      <c r="D497" s="32"/>
     </row>
     <row r="498" spans="2:4" ht="116.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B498" s="25" t="s">
+      <c r="B498" s="32" t="s">
         <v>2763</v>
       </c>
-      <c r="C498" s="25"/>
-      <c r="D498" s="25"/>
+      <c r="C498" s="32"/>
+      <c r="D498" s="32"/>
     </row>
     <row r="499" spans="2:4" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B499" s="25" t="s">
+      <c r="B499" s="32" t="s">
         <v>2764</v>
       </c>
-      <c r="C499" s="25"/>
-      <c r="D499" s="25"/>
+      <c r="C499" s="32"/>
+      <c r="D499" s="32"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:M492"/>
@@ -31186,73 +31194,73 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="26"/>
+      <c r="B2" s="25"/>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>2855</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>2843</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>2844</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="27" t="s">
         <v>2845</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="26"/>
+      <c r="B7" s="25"/>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>2846</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="27" t="s">
         <v>2847</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="28" t="s">
         <v>2848</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="29" t="s">
         <v>2849</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="29" t="s">
         <v>2850</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="30" t="s">
         <v>2851</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="31" t="s">
         <v>2852</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="30" t="s">
         <v>2853</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="31" t="s">
         <v>2854</v>
       </c>
     </row>
